--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcdouglellc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcdouglellc\Desktop\local_only_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0917C86-87C7-4883-9FC6-842A93B26163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C101B1E-DC0E-4BE4-80F2-ACE87D98F2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{5E81729F-4F81-4F9F-94F2-FB6771AEF53E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E81729F-4F81-4F9F-94F2-FB6771AEF53E}"/>
   </bookViews>
   <sheets>
     <sheet name="current" sheetId="5" r:id="rId1"/>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t/>
-  </si>
-  <si>
-    <t>['538157', '150-170', 'Director, IT Infrastructure and Client Support', 'MS', 'Finance and Administration', 'Aug 5 2023', 'Grade 15']</t>
-  </si>
-  <si>
-    <t>['538115', '150-175', 'Director, State of Good Repair', 'MS', 'Facilities Operations', 'Aug 3 2023', 'Grade 15']</t>
   </si>
   <si>
     <t>runfile('C:/Users/mcdouglellc/Desktop/local_only_repo/cu_jobs.py', wdir='C:/Users/mcdouglellc/Desktop/local_only_repo')</t>
@@ -62,13 +56,7 @@
     <t>['538239', '180-220', 'Senior Associate Provost for Institutional Research', 'MS', 'Office of the Provost', 'Aug 9 2023', 'Grade 16']</t>
   </si>
   <si>
-    <t>Python 3.10.12 | packaged by Anaconda, Inc. | (main, Jul  5 2023, 19:09:20) [MSC v.1916 64 bit (AMD64)]</t>
-  </si>
-  <si>
     <t>Type "copyright", "credits" or "license" for more information.</t>
-  </si>
-  <si>
-    <t>IPython 8.12.2 -- An enhanced Interactive Python.</t>
   </si>
   <si>
     <t>['538833', '100-110', 'Director of Student Support', 'CUMC', 'Mailman School of Public Health Administration', 'Sep 9 2023', 'Grade 106']</t>
@@ -144,6 +132,51 @@
   </si>
   <si>
     <t>['538202', '120-132', 'QA Nurse Practitioner', 'CUMC', 'Anesthesiology', 'Aug 15 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>Python 3.10.13 | packaged by Anaconda, Inc. | (main, Sep 11 2023, 13:15:57) [MSC v.1916 64 bit (AMD64)]</t>
+  </si>
+  <si>
+    <t>IPython 8.15.0 -- An enhanced Interactive Python.</t>
+  </si>
+  <si>
+    <t>['538978', '130-168', 'Nurse Practitioner - PACC (Lung Transplant)', 'CUMC', 'Medicine', 'Sep 15 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['538957', '120-150', 'Nurse Practitioner', 'CUMC', 'Neurology', 'Sep 15 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['538948', '125-145', 'Oncology Research Nurse Manager', 'CUMC', 'Herbert Irving Comprehensive Cancer Center', 'Sep 14 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['538888', '150-180', 'Director of Emergency Management', 'MS', 'Public Safety', 'Sep 13 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['538876', '125-140', 'Director of Budget &amp; Finance', 'MS', 'School of Engineering and Applied Science Admin', 'Sep 13 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['535956', '160-170', 'Dir, Housing,Engineering&amp;Fac', 'CUMC', 'CUIMC Facilities', 'May 10 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['538859', '135-135', 'Clinical Veterinarian', 'CUMC', 'Institute of Comparative Medicine', 'Sep 12 2023', 'Grade 107']</t>
+  </si>
+  <si>
+    <t>Traceback (most recent call last):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File ~\anaconda3\lib\site-packages\spyder_kernels\py3compat.py:356 in compat_exec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    exec(code, globals, locals)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  File c:\users\mcdouglellc\desktop\local_only_repo\cu_jobs.py:67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    time.sleep(3.5 + random.random()/4)        #randomize wait or it catches on</t>
+  </si>
+  <si>
+    <t>KeyboardInterrupt</t>
   </si>
 </sst>
 </file>
@@ -528,7 +561,7 @@
   <dimension ref="A1:C1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A15" sqref="A9:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -556,7 +589,7 @@
         <v/>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,40 +597,40 @@
         <f>IF(AND(LEN(C3)&gt;10,ISERROR(VLOOKUP(0+MID(C3,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C3,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
+      <c r="C3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>IF(AND(LEN(C4)&gt;10,ISERROR(VLOOKUP(0+MID(C4,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C4,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>IF(AND(LEN(C5)&gt;10,ISERROR(VLOOKUP(0+MID(C5,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C5,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>IF(AND(LEN(C6)&gt;10,ISERROR(VLOOKUP(0+MID(C6,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C6,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C6"/>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>IF(AND(LEN(C7)&gt;10,ISERROR(VLOOKUP(0+MID(C7,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C7,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
+      <c r="C7">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,7 +639,7 @@
         <v/>
       </c>
       <c r="C8">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,8 +647,8 @@
         <f>IF(AND(LEN(C9)&gt;10,ISERROR(VLOOKUP(0+MID(C9,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C9,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C9">
-        <v>6</v>
+      <c r="C9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,7 +657,7 @@
         <v/>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,7 +666,7 @@
         <v/>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,7 +675,7 @@
         <v/>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,7 +684,7 @@
         <v/>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,7 +693,7 @@
         <v/>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,7 +702,7 @@
         <v/>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,7 +720,7 @@
         <v/>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,7 +729,7 @@
         <v/>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,7 +738,7 @@
         <v/>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,7 +747,7 @@
         <v/>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,7 +756,7 @@
         <v/>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,7 +765,7 @@
         <v/>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,7 +774,7 @@
         <v/>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,7 +783,7 @@
         <v/>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,7 +792,7 @@
         <v/>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,7 +801,7 @@
         <v/>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -777,7 +810,7 @@
         <v/>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -786,7 +819,7 @@
         <v/>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,7 +828,7 @@
         <v/>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +837,7 @@
         <v/>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,7 +846,7 @@
         <v/>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,7 +855,7 @@
         <v/>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,7 +864,7 @@
         <v/>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,7 +873,7 @@
         <v/>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,7 +882,7 @@
         <v/>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,7 +891,7 @@
         <v/>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,7 +900,7 @@
         <v/>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -876,7 +909,7 @@
         <v/>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -885,7 +918,7 @@
         <v/>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,7 +927,7 @@
         <v/>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,7 +936,7 @@
         <v/>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,35 +944,45 @@
         <f>IF(AND(LEN(C42)&gt;10,ISERROR(VLOOKUP(0+MID(C42,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C42,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C42"/>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="str">
         <f>IF(AND(LEN(C43)&gt;10,ISERROR(VLOOKUP(0+MID(C43,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C43,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C43"/>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
         <f>IF(AND(LEN(C44)&gt;10,ISERROR(VLOOKUP(0+MID(C44,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C44,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C44"/>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
         <f>IF(AND(LEN(C45)&gt;10,ISERROR(VLOOKUP(0+MID(C45,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C45,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C45"/>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
         <f>IF(AND(LEN(C46)&gt;10,ISERROR(VLOOKUP(0+MID(C46,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C46,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C46"/>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
@@ -953,14 +996,18 @@
         <f>IF(AND(LEN(C48)&gt;10,ISERROR(VLOOKUP(0+MID(C48,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C48,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C48"/>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="str">
         <f>IF(AND(LEN(C49)&gt;10,ISERROR(VLOOKUP(0+MID(C49,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C49,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C49"/>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="str">
@@ -974,14 +1021,18 @@
         <f>IF(AND(LEN(C51)&gt;10,ISERROR(VLOOKUP(0+MID(C51,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C51,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C51"/>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
         <f>IF(AND(LEN(C52)&gt;10,ISERROR(VLOOKUP(0+MID(C52,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C52,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C52"/>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
@@ -995,7 +1046,9 @@
         <f>IF(AND(LEN(C54)&gt;10,ISERROR(VLOOKUP(0+MID(C54,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C54,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C54"/>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="str">
@@ -6912,10 +6965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58090094-56EE-46D2-BEBC-704D9DE71ED8}">
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
     <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="A284" sqref="A284:A288"/>
+      <selection activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8336,6 +8389,41 @@
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>538202</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>538978</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>538957</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>538948</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>538888</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>538876</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>538859</v>
       </c>
     </row>
   </sheetData>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcdouglellc\Desktop\local_only_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C101B1E-DC0E-4BE4-80F2-ACE87D98F2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9E975B-0BE6-431F-820E-C8171225CA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E81729F-4F81-4F9F-94F2-FB6771AEF53E}"/>
+    <workbookView xWindow="6570" yWindow="2415" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{5E81729F-4F81-4F9F-94F2-FB6771AEF53E}"/>
   </bookViews>
   <sheets>
     <sheet name="current" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t/>
   </si>
@@ -44,139 +44,307 @@
     <t>runfile('C:/Users/mcdouglellc/Desktop/local_only_repo/cu_jobs.py', wdir='C:/Users/mcdouglellc/Desktop/local_only_repo')</t>
   </si>
   <si>
-    <t>['537863', '150-180', 'Executive Director, Community Health Equity Collaborative', 'CUMC', 'Mailman School of Public Health Administration', 'Jul 25 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['538221', '125-140', 'Research Nurse Practitioner - Cardiology', 'CUMC', 'Medicine', 'Aug 9 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538205', '120-160', 'Managing Attorney &amp; Managing Director of Clinical Programs', 'MS', 'School of Law', 'Aug 9 2023', 'Grade 14']</t>
-  </si>
-  <si>
     <t>['538239', '180-220', 'Senior Associate Provost for Institutional Research', 'MS', 'Office of the Provost', 'Aug 9 2023', 'Grade 16']</t>
   </si>
   <si>
-    <t>Type "copyright", "credits" or "license" for more information.</t>
-  </si>
-  <si>
-    <t>['538833', '100-110', 'Director of Student Support', 'CUMC', 'Mailman School of Public Health Administration', 'Sep 9 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['538824', '140-150', 'Director, Human Resources and Finance Service Centers (Hybrid Schedule)', 'Mville', 'Finance Service Management', 'Sep 8 2023', 'Grade 14']</t>
-  </si>
-  <si>
     <t>['538800', '120-146', 'Manager of Building Automation and Controls', 'MS', 'Facilities Operations', 'Sep 8 2023', 'Grade 14']</t>
   </si>
   <si>
-    <t>['538817', '128-175', 'Physician Assistant', 'CUMC', 'Emergency Medicine', 'Sep 8 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538772', '145-165', 'Director, Human Resources and Faculty Affairs', 'CUMC', 'P&amp;S Vice Dean For Admin', 'Sep 7 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['538790', '120-160', 'Nurse Practitioner - Hematology &amp; Oncology (Liquid Tumor Oncology)', 'CUMC', 'Medicine', 'Sep 7 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538763', '115-140', 'Senior Director of Admissions Operations', 'MS', 'School of International and Public Affairs', 'Sep 6 2023', 'Grade 14']</t>
-  </si>
-  <si>
     <t>No Second Block</t>
   </si>
   <si>
-    <t>['529175', 'Diagnostic CT Technologist', 'CUMC', 'Radiology', 'Aug 14 2023', 'Grade 105']</t>
-  </si>
-  <si>
     <t>['538692', '120-130', 'Director of Gift Strategy', 'MS', 'Office of Alumni &amp; Development', 'Sep 5 2023', 'Grade 14']</t>
   </si>
   <si>
     <t>['538675', '140-170', 'Senior Philanthropic Advisor', 'MS', 'Office of Alumni &amp; Development', 'Sep 5 2023', 'Grade 15']</t>
   </si>
   <si>
-    <t>['538701', '120-160', 'Nurse Practitioner - Hematology &amp; Oncology (Liquid Tumor Oncology)', 'CUMC', 'Medicine', 'Aug 31 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538699', '110-150', 'Lead Bioinformatic and Computational Scientist - PACC', 'CUMC', 'Medicine', 'Aug 31 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538656', '103-125', 'PET/CT Technologist', 'CUMC', 'Radiology', 'Aug 30 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538647', '115-125', 'Major Gifts Officer', 'CUMC', 'Mailman School of Public Health Administration', 'Aug 30 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538511', '120-145', 'Nurse Practitioner', 'CUMC', 'Neurology', 'Aug 26 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538566', '100-120', 'Associate Director, Financial Services', 'MS', 'Finance and Administration', 'Aug 25 2023', 'Grade 14']</t>
-  </si>
-  <si>
     <t>['538545', '120-140', 'Marketing Manager', 'MS', 'Office of the Provost', 'Aug 25 2023', 'Grade 14']</t>
   </si>
   <si>
-    <t>['538558', '110-125', 'Director of Student Engagement', 'MS', 'University Life', 'Aug 24 2023', 'Grade 14']</t>
-  </si>
-  <si>
-    <t>['538519', 'Project Manager', 'CUMC', 'Division of Scholarship &amp; Rsch', 'Aug 23 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538510', '110-135', 'MRI Manager', 'CUMC', 'Radiology', 'Aug 22 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538490', '100-125', 'Psychologist (Hybrid Schedule)', 'MS', 'Columbia Health', 'Aug 22 2023', 'Grade 14']</t>
-  </si>
-  <si>
-    <t>['538473', '110-125', 'Nurse Practitioner', 'CUMC', 'Pediatrics', 'Aug 19 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538422', '155-175', 'Executive Director of Data and Analytics', 'MS', 'School of International and Public Affairs', 'Aug 18 2023', 'Grade 15']</t>
-  </si>
-  <si>
-    <t>['538202', '120-132', 'QA Nurse Practitioner', 'CUMC', 'Anesthesiology', 'Aug 15 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>Python 3.10.13 | packaged by Anaconda, Inc. | (main, Sep 11 2023, 13:15:57) [MSC v.1916 64 bit (AMD64)]</t>
-  </si>
-  <si>
-    <t>IPython 8.15.0 -- An enhanced Interactive Python.</t>
-  </si>
-  <si>
-    <t>['538978', '130-168', 'Nurse Practitioner - PACC (Lung Transplant)', 'CUMC', 'Medicine', 'Sep 15 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538957', '120-150', 'Nurse Practitioner', 'CUMC', 'Neurology', 'Sep 15 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['538948', '125-145', 'Oncology Research Nurse Manager', 'CUMC', 'Herbert Irving Comprehensive Cancer Center', 'Sep 14 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538888', '150-180', 'Director of Emergency Management', 'MS', 'Public Safety', 'Sep 13 2023', 'Grade 15']</t>
-  </si>
-  <si>
-    <t>['538876', '125-140', 'Director of Budget &amp; Finance', 'MS', 'School of Engineering and Applied Science Admin', 'Sep 13 2023', 'Grade 14']</t>
-  </si>
-  <si>
-    <t>['535956', '160-170', 'Dir, Housing,Engineering&amp;Fac', 'CUMC', 'CUIMC Facilities', 'May 10 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['538859', '135-135', 'Clinical Veterinarian', 'CUMC', 'Institute of Comparative Medicine', 'Sep 12 2023', 'Grade 107']</t>
-  </si>
-  <si>
-    <t>Traceback (most recent call last):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  File ~\anaconda3\lib\site-packages\spyder_kernels\py3compat.py:356 in compat_exec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    exec(code, globals, locals)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  File c:\users\mcdouglellc\desktop\local_only_repo\cu_jobs.py:67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    time.sleep(3.5 + random.random()/4)        #randomize wait or it catches on</t>
-  </si>
-  <si>
-    <t>KeyboardInterrupt</t>
+    <t>['540601', '155-180', 'Director of Practice Operations', 'Columbia University CUMC', 'Neurological Surgery', 'Dec 2 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['540541', '200-255', 'Associate Dean of Registration and Student Services', 'MS', 'School of Law', 'Dec 2 2023', 'Grade 16']</t>
+  </si>
+  <si>
+    <t>['540599', '110-160', 'Nurse Practitioner - Palliative Care', 'Columbia University CUMC', 'Medicine', 'Dec 1 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540544', '125-140', 'Director Student Case Management', 'MS', 'Columbia Health', 'Nov 30 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['540486', '100-165', 'Nurse Practitioner - Pulmonary (MICU)', 'Columbia University CUMC', 'Medicine', 'Nov 29 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540482', '100-125', 'Senior Program Manager - DLD', 'Columbia University CUMC', 'Medicine', 'Nov 29 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540509', '150-175', 'Executive Director, Communications', 'MS', 'Data Science Institute', 'Nov 28 2023', 'Grade 16']</t>
+  </si>
+  <si>
+    <t>['540448', '100-110', 'Revenue Cycle Manager (Self-Pay Collection)', 'New York', 'Faculty Practice Organization', 'Nov 23 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540425', '145-150', 'Director of Nursing and Quality Management', 'Columbia University CUMC', 'CUIMC Student Health Services', 'Nov 23 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['540443', '109-156', 'Clinical Coordinator III - PA', 'Columbia University CUMC', 'Surgery', 'Nov 23 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['540380', '100-135', 'Genetics Counselor', 'Columbia University CUMC', 'P&amp;S Vice Dean For Admin', 'Nov 22 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540423', '100-120', 'Director, Accreditation, QISP', 'Columbia University CUMC', 'P&amp;S Vice Dean For Education', 'Nov 22 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['540386', '109-156', 'Clinical Coordinator III-NP/PA', 'Columbia University CUMC', 'Surgery', 'Nov 21 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['540372', '120-150', 'Senior Systems Engineer', 'Columbia University CUMC', 'CUIMC IT', 'Nov 18 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540358', '140-160', 'Senior Cybersecurity Engineer', 'Columbia University CUMC', 'CUIMC IT', 'Nov 18 2023', 'Grade 107']</t>
+  </si>
+  <si>
+    <t>['540334', '125-140', 'Nurse Practitioner - Cardiology', 'Columbia University CUMC', 'Medicine', 'Nov 17 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540344', '130-155', 'Senior Director - Major Gifts', 'Mville', 'Columbia Business School', 'Nov 17 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['540328', '100-108', 'Clinical Coordinator II / RN', 'Columbia University CUMC', 'Obstetrics and Gynecology', 'Nov 16 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540316', '105-115', 'Oncology Research Nurse', 'Columbia University CUMC', 'Herbert Irving Comprehensive Cancer Center', 'Nov 16 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540263', '100-120', 'Equity Officer', 'Columbia University CUMC', 'Orthopedic Surgery', 'Nov 14 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540228', '130-160', 'Nurse Practitioner', 'Columbia University CUMC', 'Neurology', 'Nov 14 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540217', '100-130', 'Associate Director-Construction Sourcing (Hybrid Schedule)', 'Mville', 'Procurement Services', 'Nov 11 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['540213', '135-145', 'Clinical Triage Manager', 'New York', 'Faculty Practice Organization', 'Nov 11 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540157', '145-180', 'Executive Director, Analytics and Information Systems', 'MS', 'School of Professional Studies', 'Nov 6 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['540124', '100-120', 'Associate Director, Financial Services', 'MS', 'Finance and Administration', 'Nov 3 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['540164', '118-135', 'Clinical Coordinator II - NP', 'Columbia University CUMC', 'Neurological Surgery', 'Nov 7 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540149', '160-180', 'Director, Budget &amp; Financial Analysis', 'Columbia University CUMC', 'CUIMC CFO', 'Nov 6 2023', 'Grade 107']</t>
+  </si>
+  <si>
+    <t>['540073', '110-120', 'Clinical Coordinator II - Registered Nurse', 'Columbia University CUMC', 'Urology', 'Nov 2 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540095', '160-168', 'Director-Fin Rpting &amp; Bus Svcs', 'MS', 'Earth Institute', 'Nov 2 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['540083', '115-130', 'Audit Manager, IT Audit (Hybrid Schedule)', 'Mville', 'Internal Audit', 'Nov 2 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['540057', '100-165', 'Nurse Practitioner - PACC (MICU)', 'Columbia University CUMC', 'Medicine', 'Nov 1 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540044', '132-160', 'Nurse Practitioner - Hematology &amp; Oncology (Solid Tumor Oncology)', 'Columbia University CUMC', 'Medicine', 'Oct 31 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['537160', '175-190', 'Chief Nurse Practitioner - Cardiology (CACC)', 'Columbia University CUMC', 'Medicine', 'Jun 24 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['537153', '100-105', 'Sr Project Portfolio Manager', 'Columbia University CUMC', 'ICAP at Columbia', 'Jun 24 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['537863', '150-180', 'Executive Director, Community Health Equity Collaborative', 'Columbia University CUMC', 'Mailman School of Public Health Administration', 'Jul 25 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['537997', '120-145', 'Clinical Care Coordinator - NP', 'Columbia University CUMC', 'Orthopedic Surgery', 'Jul 29 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['538050', '120-140', 'Physician Assistant', 'Columbia University CUMC', 'Orthopedic Surgery', 'Aug 1 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['538202', '120-132', 'QA Nurse Practitioner', 'Columbia University CUMC', 'Anesthesiology', 'Aug 15 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['538957', '120-150', 'Nurse Practitioner', 'Columbia University CUMC', 'Neurology', 'Sep 15 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['539636', '105-110', 'Sr Project Portfolio Manager', 'Columbia University CUMC', 'ICAP at Columbia', 'Oct 13 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['539611', '130-150', 'Senior Informatics Specialist', 'Columbia University CUMC', 'Division of Scholarship &amp; Rsch', 'Oct 13 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['539614', '130-150', 'Senior Informatics Specialist', 'Columbia University CUMC', 'Division of Scholarship &amp; Rsch', 'Oct 13 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['540000', '130-175', 'Physician Assistant', 'Columbia University CUMC', 'Orthopedic Surgery', 'Oct 28 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['529175', 'Diagnostic CT Technologist', 'Columbia University CUMC', 'Radiology', 'Aug 14 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['530892', '120-135', 'Adult Nurse Practitioner', 'Columbia University CUMC', 'Naomi Berrie Diabetes Center', 'Nov 4 2022', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['531240', '100-120', 'Nurse Practitioner', 'Columbia University CUMC', 'Pediatrics', 'Nov 18 2022', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['531274', '110-130', 'Nurse Practitioner - DLD (Motility)', 'Columbia University CUMC', 'Medicine', 'Nov 22 2022', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['533002', '120-150', 'Nurse Practitioner - Cardiology', 'Columbia University CUMC', 'Medicine', 'Dec 24 2022', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['533534', '110-126', 'Nurse Practitioner - Rheumatology', 'Columbia University CUMC', 'Medicine', 'Jan 27 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['533979', '110-140', 'Nurse Practitioner - DLD (Allen)', 'Columbia University CUMC', 'Medicine', 'Feb 16 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['535646', '140-165', 'Nurse Practitioner - Cardiology', 'Columbia University CUMC', 'Medicine', 'Apr 27 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['536440', '100-108', 'Manager, Human Resources and Faculty Affairs', 'Columbia University CUMC', 'P&amp;S Vice Dean For Admin', 'May 27 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['536760', '100-110', 'Asst Director, Financial Ops', 'Columbia University CUMC', 'Division of Finance &amp; Admin', 'Jun 9 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['537329', '130-140', 'Nurse Practitioner - Cardiology', 'Columbia University CUMC', 'Medicine', 'Jun 29 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['537446', '125-150', 'Nurse Practitioner - Cardiology', 'Columbia University CUMC', 'Medicine', 'Jul 6 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['537456', '130-150', 'Nurse Practitioner - Cardiology - CCU', 'Columbia University CUMC', 'Medicine', 'Jul 7 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['538000', '125-155', 'Advanced Practice Provider', 'Columbia University CUMC', 'Radiation Oncology', 'Jul 29 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['538519', 'Project Manager', 'Columbia University CUMC', 'Division of Scholarship &amp; Rsch', 'Aug 23 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['538647', '115-125', 'Major Gifts Officer', 'Columbia University CUMC', 'Mailman School of Public Health Administration', 'Aug 30 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['538699', '110-150', 'Lead Bioinformatic and Computational Scientist - PACC', 'Columbia University CUMC', 'Medicine', 'Aug 31 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['538790', '120-160', 'Nurse Practitioner - Hematology &amp; Oncology (Liquid Tumor Oncology)', 'Columbia University CUMC', 'Medicine', 'Sep 7 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['538817', '128-175', 'Physician Assistant', 'Columbia University CUMC', 'Emergency Medicine', 'Sep 8 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['538978', '130-168', 'Nurse Practitioner - PACC (Lung Transplant)', 'Columbia University CUMC', 'Medicine', 'Sep 15 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['539059', '130-168', 'Physician Assistant - PACC (Lung Transplant Program)', 'Columbia University CUMC', 'Medicine', 'Sep 19 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['539241', '140-145', 'Nurse Practitioner', 'Columbia University CUMC', 'Psychiatry', 'Sep 27 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['539896', '140-145', 'Nurse Practitioner', 'Columbia University CUMC', 'Psychiatry', 'Oct 25 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['539991', '105-115', 'Oncology Research Nurse Navigator', 'Columbia University CUMC', 'Herbert Irving Comprehensive Cancer Center', 'Oct 28 2023', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['539878', '117-142', 'Director - CUIMC Faculty Programs and Services', 'Columbia University CUMC', 'Center for Teaching and Learning', 'Oct 24 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['532781', '225-240', 'Assistant Dean, Development', 'Columbia University CUMC', 'Mailman School of Public Health Administration', 'Dec 14 2022', 'Grade 107']</t>
+  </si>
+  <si>
+    <t>['535623', '150-192', 'Administrator - Hematology &amp; Oncology', 'Columbia University CUMC', 'Medicine', 'Apr 26 2023', 'Grade 107']</t>
+  </si>
+  <si>
+    <t>['538859', '135-135', 'Clinical Veterinarian', 'Columbia University CUMC', 'Institute of Comparative Medicine', 'Sep 12 2023', 'Grade 107']</t>
+  </si>
+  <si>
+    <t>['539785', '140-150', 'Senior Director of Finance and Budget', 'Columbia University CUMC', 'P&amp;S Vice Dean For Education', 'Oct 20 2023', 'Grade 107']</t>
+  </si>
+  <si>
+    <t>['540005', '150-180', 'Director, Vendor Management', 'Mville', 'Columbia University Information Technology', 'Oct 28 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['539936', '100-125', 'Psychologist (Hybrid Schedule)', 'MS', 'Columbia Health', 'Oct 27 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['539721', '163-175', 'Chief of Staff to the Founding Director', 'MS', 'School of International and Public Affairs', 'Oct 19 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['539453', '150-170', 'Senior Project Manager', 'Mville', 'Mville Development Group', 'Oct 6 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['539642', '200-255', 'Associate Dean of Registration and Student Services', 'MS', 'School of Law', 'Oct 18 2023', 'Grade 16']</t>
+  </si>
+  <si>
+    <t>['539690', '150-175', 'Executive Director of Human Resources in Arts and Sciences', 'MS', 'Office of EVP Arts &amp; Sciences', 'Oct 16 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['534384', '150-165', 'Senior Project Manager', 'Mville', 'Mville Development Group', 'Mar 7 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['539442', '120-140', 'Director of Alumni Relations', 'MS', 'School of Law', 'Oct 6 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['539421', '115-130', 'Director of Operations', 'MS', 'Office of the Provost', 'Oct 5 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['539343', '100-112', 'Audit Manager (Hybrid Schedule)', 'Mville', 'Internal Audit', 'Oct 3 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['539310', '115-135', 'Director, Facilities &amp; Operations', 'MS', 'School of Professional Studies', 'Sep 28 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['539108', '165-180', 'Executive Director, Alumni Relations &amp; Engagement', 'MS', 'Columbia College', 'Sep 20 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['539017', '170-185', 'Associate Dean of Practicum Learning', 'MS', 'School of Social Work', 'Sep 20 2023', 'Grade 16']</t>
+  </si>
+  <si>
+    <t>['539074', '130-145', 'Director, Human Resources', 'MS', 'The School at Columbia Univ', 'Sep 19 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['538157', '150-170', 'Director, IT Infrastructure and Client Support', 'MS', 'Finance and Administration', 'Aug 5 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['538087', '130-158', 'Executive Director of Admissions Operations', 'Mville', 'Columbia Business School', 'Aug 3 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['537899', '130-160', 'Senior Associate Athletics Director/ Chief Financial Officer', 'MS', 'Department of Intercollegiate Athletics', 'Jul 25 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['537849', '200-250', 'Chief Diversity Officer', 'MS', 'Office of the Exec VP for Facilities and Ops', 'Jul 25 2023', 'Grade 16']</t>
+  </si>
+  <si>
+    <t>['537871', '125-150', 'Director of Training &amp; Education', 'MS', 'Office of the Provost', 'Jul 24 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['537515', '155-175', 'Managing Director, MRI Platform', 'Mville', 'Zuckerman Institute', 'Jul 8 2023', 'Grade 16']</t>
+  </si>
+  <si>
+    <t>['533364', '170-200', 'Deputy Senior Director of Research', 'MS', 'School of International and Public Affairs', 'Jan 31 2023', 'Grade 16']</t>
+  </si>
+  <si>
+    <t>['520212', "Exec Director-Veterans' Center", 'MS', 'School of General Studies', 'Nov 5 2021', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['534887', '120-138', 'Associate Director-Internal Audit (Hybrid Schedule)', 'Mville', 'Internal Audit', 'Mar 30 2023', 'Grade 15']</t>
   </si>
 </sst>
 </file>
@@ -560,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8656E882-76F0-44FD-AA29-91A5112D6DD9}">
   <dimension ref="A1:C1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A9:A15"/>
+    <sheetView topLeftCell="A1026" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A1026"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,8 +756,8 @@
         <f>IF(AND(LEN(C2)&gt;10,ISERROR(VLOOKUP(0+MID(C2,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C2,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,7 +765,9 @@
         <f>IF(AND(LEN(C3)&gt;10,ISERROR(VLOOKUP(0+MID(C3,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C3,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C3"/>
+      <c r="C3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
@@ -605,7 +775,7 @@
         <v/>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +783,9 @@
         <f>IF(AND(LEN(C5)&gt;10,ISERROR(VLOOKUP(0+MID(C5,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C5,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C5"/>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
@@ -621,7 +793,7 @@
         <v/>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,8 +801,8 @@
         <f>IF(AND(LEN(C7)&gt;10,ISERROR(VLOOKUP(0+MID(C7,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C7,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C7">
-        <v>165</v>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,8 +810,8 @@
         <f>IF(AND(LEN(C8)&gt;10,ISERROR(VLOOKUP(0+MID(C8,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C8,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C8">
-        <v>6</v>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,7 +820,7 @@
         <v/>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,7 +829,7 @@
         <v/>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -666,7 +838,7 @@
         <v/>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -675,7 +847,7 @@
         <v/>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -684,7 +856,7 @@
         <v/>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,7 +865,7 @@
         <v/>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,7 +874,7 @@
         <v/>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -711,7 +883,7 @@
         <v/>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,7 +892,7 @@
         <v/>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -729,7 +901,7 @@
         <v/>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,7 +910,7 @@
         <v/>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,7 +919,7 @@
         <v/>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +928,7 @@
         <v/>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -765,7 +937,7 @@
         <v/>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,7 +946,7 @@
         <v/>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,7 +955,7 @@
         <v/>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,7 +964,7 @@
         <v/>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,7 +973,7 @@
         <v/>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,7 +982,7 @@
         <v/>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,7 +991,7 @@
         <v/>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,7 +1000,7 @@
         <v/>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,7 +1009,7 @@
         <v/>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -846,7 +1018,7 @@
         <v/>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,7 +1027,7 @@
         <v/>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,7 +1036,7 @@
         <v/>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -873,7 +1045,7 @@
         <v/>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,7 +1054,7 @@
         <v/>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,7 +1063,7 @@
         <v/>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,7 +1072,7 @@
         <v/>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -909,7 +1081,7 @@
         <v/>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,7 +1090,7 @@
         <v/>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,7 +1099,7 @@
         <v/>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +1108,7 @@
         <v/>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -945,7 +1117,7 @@
         <v/>
       </c>
       <c r="C42" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,7 +1126,7 @@
         <v/>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,7 +1135,7 @@
         <v/>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -972,7 +1144,7 @@
         <v/>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,7 +1153,7 @@
         <v/>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,7 +1161,9 @@
         <f>IF(AND(LEN(C47)&gt;10,ISERROR(VLOOKUP(0+MID(C47,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C47,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C47"/>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="str">
@@ -997,7 +1171,7 @@
         <v/>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1006,7 +1180,7 @@
         <v/>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,7 +1188,9 @@
         <f>IF(AND(LEN(C50)&gt;10,ISERROR(VLOOKUP(0+MID(C50,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C50,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C50"/>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="str">
@@ -1022,7 +1198,7 @@
         <v/>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1031,7 +1207,7 @@
         <v/>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,7 +1215,9 @@
         <f>IF(AND(LEN(C53)&gt;10,ISERROR(VLOOKUP(0+MID(C53,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C53,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C53"/>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="str">
@@ -1047,7 +1225,7 @@
         <v/>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1055,364 +1233,468 @@
         <f>IF(AND(LEN(C55)&gt;10,ISERROR(VLOOKUP(0+MID(C55,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C55,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C55"/>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
         <f>IF(AND(LEN(C56)&gt;10,ISERROR(VLOOKUP(0+MID(C56,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C56,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C56"/>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="str">
         <f>IF(AND(LEN(C57)&gt;10,ISERROR(VLOOKUP(0+MID(C57,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C57,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C57"/>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
         <f>IF(AND(LEN(C58)&gt;10,ISERROR(VLOOKUP(0+MID(C58,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C58,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C58"/>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
         <f>IF(AND(LEN(C59)&gt;10,ISERROR(VLOOKUP(0+MID(C59,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C59,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C59"/>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="str">
         <f>IF(AND(LEN(C60)&gt;10,ISERROR(VLOOKUP(0+MID(C60,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C60,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C60"/>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="str">
         <f>IF(AND(LEN(C61)&gt;10,ISERROR(VLOOKUP(0+MID(C61,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C61,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C61"/>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
         <f>IF(AND(LEN(C62)&gt;10,ISERROR(VLOOKUP(0+MID(C62,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C62,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C62"/>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
         <f>IF(AND(LEN(C63)&gt;10,ISERROR(VLOOKUP(0+MID(C63,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C63,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C63"/>
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="str">
         <f>IF(AND(LEN(C64)&gt;10,ISERROR(VLOOKUP(0+MID(C64,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C64,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C64"/>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="str">
         <f>IF(AND(LEN(C65)&gt;10,ISERROR(VLOOKUP(0+MID(C65,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C65,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C65"/>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="str">
         <f>IF(AND(LEN(C66)&gt;10,ISERROR(VLOOKUP(0+MID(C66,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C66,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C66"/>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="str">
         <f>IF(AND(LEN(C67)&gt;10,ISERROR(VLOOKUP(0+MID(C67,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C67,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C67"/>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="str">
         <f>IF(AND(LEN(C68)&gt;10,ISERROR(VLOOKUP(0+MID(C68,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C68,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C68"/>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="str">
         <f>IF(AND(LEN(C69)&gt;10,ISERROR(VLOOKUP(0+MID(C69,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C69,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C69"/>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="str">
         <f>IF(AND(LEN(C70)&gt;10,ISERROR(VLOOKUP(0+MID(C70,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C70,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C70"/>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="str">
         <f>IF(AND(LEN(C71)&gt;10,ISERROR(VLOOKUP(0+MID(C71,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C71,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C71"/>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="str">
         <f>IF(AND(LEN(C72)&gt;10,ISERROR(VLOOKUP(0+MID(C72,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C72,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C72"/>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="str">
         <f>IF(AND(LEN(C73)&gt;10,ISERROR(VLOOKUP(0+MID(C73,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C73,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C73"/>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="str">
         <f>IF(AND(LEN(C74)&gt;10,ISERROR(VLOOKUP(0+MID(C74,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C74,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C74"/>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="str">
         <f>IF(AND(LEN(C75)&gt;10,ISERROR(VLOOKUP(0+MID(C75,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C75,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C75"/>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f>IF(AND(LEN(C76)&gt;10,ISERROR(VLOOKUP(0+MID(C76,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C76,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C76"/>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f>IF(AND(LEN(C77)&gt;10,ISERROR(VLOOKUP(0+MID(C77,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C77,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C77"/>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="str">
         <f>IF(AND(LEN(C78)&gt;10,ISERROR(VLOOKUP(0+MID(C78,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C78,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C78"/>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="str">
         <f>IF(AND(LEN(C79)&gt;10,ISERROR(VLOOKUP(0+MID(C79,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C79,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C79"/>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="str">
         <f>IF(AND(LEN(C80)&gt;10,ISERROR(VLOOKUP(0+MID(C80,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C80,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C80"/>
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="str">
         <f>IF(AND(LEN(C81)&gt;10,ISERROR(VLOOKUP(0+MID(C81,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C81,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C81"/>
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="str">
         <f>IF(AND(LEN(C82)&gt;10,ISERROR(VLOOKUP(0+MID(C82,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C82,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C82"/>
+      <c r="C82" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="str">
         <f>IF(AND(LEN(C83)&gt;10,ISERROR(VLOOKUP(0+MID(C83,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C83,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C83"/>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="str">
         <f>IF(AND(LEN(C84)&gt;10,ISERROR(VLOOKUP(0+MID(C84,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C84,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C84"/>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="str">
         <f>IF(AND(LEN(C85)&gt;10,ISERROR(VLOOKUP(0+MID(C85,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C85,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C85"/>
+      <c r="C85" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="str">
         <f>IF(AND(LEN(C86)&gt;10,ISERROR(VLOOKUP(0+MID(C86,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C86,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C86"/>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="str">
         <f>IF(AND(LEN(C87)&gt;10,ISERROR(VLOOKUP(0+MID(C87,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C87,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C87"/>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="str">
         <f>IF(AND(LEN(C88)&gt;10,ISERROR(VLOOKUP(0+MID(C88,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C88,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C88"/>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="str">
         <f>IF(AND(LEN(C89)&gt;10,ISERROR(VLOOKUP(0+MID(C89,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C89,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C89"/>
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="str">
         <f>IF(AND(LEN(C90)&gt;10,ISERROR(VLOOKUP(0+MID(C90,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C90,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C90"/>
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="str">
         <f>IF(AND(LEN(C91)&gt;10,ISERROR(VLOOKUP(0+MID(C91,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C91,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C91"/>
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="str">
         <f>IF(AND(LEN(C92)&gt;10,ISERROR(VLOOKUP(0+MID(C92,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C92,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C92"/>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="str">
         <f>IF(AND(LEN(C93)&gt;10,ISERROR(VLOOKUP(0+MID(C93,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C93,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C93"/>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="str">
         <f>IF(AND(LEN(C94)&gt;10,ISERROR(VLOOKUP(0+MID(C94,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C94,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C94"/>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="str">
         <f>IF(AND(LEN(C95)&gt;10,ISERROR(VLOOKUP(0+MID(C95,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C95,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C95"/>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="str">
         <f>IF(AND(LEN(C96)&gt;10,ISERROR(VLOOKUP(0+MID(C96,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C96,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C96"/>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="str">
         <f>IF(AND(LEN(C97)&gt;10,ISERROR(VLOOKUP(0+MID(C97,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C97,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C97"/>
+      <c r="C97" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="str">
         <f>IF(AND(LEN(C98)&gt;10,ISERROR(VLOOKUP(0+MID(C98,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C98,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C98"/>
+      <c r="C98" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="str">
         <f>IF(AND(LEN(C99)&gt;10,ISERROR(VLOOKUP(0+MID(C99,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C99,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C99"/>
+      <c r="C99" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="str">
         <f>IF(AND(LEN(C100)&gt;10,ISERROR(VLOOKUP(0+MID(C100,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C100,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C100"/>
+      <c r="C100" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="str">
         <f>IF(AND(LEN(C101)&gt;10,ISERROR(VLOOKUP(0+MID(C101,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C101,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C101"/>
+      <c r="C101" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="str">
         <f>IF(AND(LEN(C102)&gt;10,ISERROR(VLOOKUP(0+MID(C102,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C102,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C102"/>
+      <c r="C102" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="str">
         <f>IF(AND(LEN(C103)&gt;10,ISERROR(VLOOKUP(0+MID(C103,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C103,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C103"/>
+      <c r="C103" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="str">
         <f>IF(AND(LEN(C104)&gt;10,ISERROR(VLOOKUP(0+MID(C104,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C104,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C104"/>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="str">
         <f>IF(AND(LEN(C105)&gt;10,ISERROR(VLOOKUP(0+MID(C105,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C105,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C105"/>
+      <c r="C105" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="str">
         <f>IF(AND(LEN(C106)&gt;10,ISERROR(VLOOKUP(0+MID(C106,3,6),old!A:A,1,FALSE))),                          IFERROR(0+MID(C106,3,6),""),"")</f>
         <v/>
       </c>
-      <c r="C106"/>
+      <c r="C106" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="str">
@@ -6965,10 +7247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58090094-56EE-46D2-BEBC-704D9DE71ED8}">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="A287" sqref="A287"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6982,21 +7264,33 @@
       <c r="A2">
         <v>538221</v>
       </c>
+      <c r="B2">
+        <v>540157</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>538205</v>
       </c>
+      <c r="B3">
+        <v>540149</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>538239</v>
       </c>
+      <c r="B4">
+        <v>540095</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>538169</v>
       </c>
+      <c r="B5">
+        <v>539785</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -8308,122 +8602,387 @@
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>538772</v>
+        <v>538692</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>538692</v>
+        <v>538675</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>538675</v>
+        <v>538701</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>538701</v>
+        <v>538699</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>538699</v>
+        <v>538656</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>538656</v>
+        <v>538647</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>538647</v>
+        <v>538511</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>538511</v>
+        <v>538566</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>538566</v>
+        <v>538545</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>538545</v>
+        <v>538558</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>538558</v>
+        <v>538519</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>538519</v>
+        <v>538510</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>538510</v>
+        <v>538490</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>538490</v>
+        <v>538473</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>538473</v>
+        <v>538422</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>538422</v>
+        <v>538202</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>538202</v>
+        <v>538978</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>538957</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>538978</v>
+        <v>538948</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>538957</v>
+        <v>538888</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>538948</v>
+        <v>538876</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>538888</v>
+        <v>538859</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>538876</v>
+        <v>540601</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>0</v>
+      <c r="A290">
+        <v>540541</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>538859</v>
+        <v>540599</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>540544</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>540486</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>540482</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>540509</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>540448</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>540425</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>540443</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>540380</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>540423</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>540386</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>540372</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>540358</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>540334</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>540344</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>540328</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>540316</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>540263</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>540228</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>540217</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>540213</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>540157</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>540124</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>540164</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>540149</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>540073</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>540095</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>540083</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>540057</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>540044</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>539636</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>539611</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>539614</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>539059</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>539241</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>539896</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>539991</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>539878</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>539785</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>540005</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>539936</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>539721</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>539453</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>539642</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>539690</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>539442</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>539421</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>539343</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>539310</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>539108</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>539017</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>539074</v>
       </c>
     </row>
   </sheetData>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcdouglellc\Desktop\local_only_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9E975B-0BE6-431F-820E-C8171225CA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F43359-B879-4EFC-B1BD-809AE53F3326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2415" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{5E81729F-4F81-4F9F-94F2-FB6771AEF53E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E81729F-4F81-4F9F-94F2-FB6771AEF53E}"/>
   </bookViews>
   <sheets>
     <sheet name="current" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t/>
   </si>
@@ -62,12 +62,6 @@
     <t>['538545', '120-140', 'Marketing Manager', 'MS', 'Office of the Provost', 'Aug 25 2023', 'Grade 14']</t>
   </si>
   <si>
-    <t>['540601', '155-180', 'Director of Practice Operations', 'Columbia University CUMC', 'Neurological Surgery', 'Dec 2 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['540541', '200-255', 'Associate Dean of Registration and Student Services', 'MS', 'School of Law', 'Dec 2 2023', 'Grade 16']</t>
-  </si>
-  <si>
     <t>['540599', '110-160', 'Nurse Practitioner - Palliative Care', 'Columbia University CUMC', 'Medicine', 'Dec 1 2023', 'Grade 105']</t>
   </si>
   <si>
@@ -77,153 +71,39 @@
     <t>['540486', '100-165', 'Nurse Practitioner - Pulmonary (MICU)', 'Columbia University CUMC', 'Medicine', 'Nov 29 2023', 'Grade 105']</t>
   </si>
   <si>
-    <t>['540482', '100-125', 'Senior Program Manager - DLD', 'Columbia University CUMC', 'Medicine', 'Nov 29 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['540509', '150-175', 'Executive Director, Communications', 'MS', 'Data Science Institute', 'Nov 28 2023', 'Grade 16']</t>
-  </si>
-  <si>
-    <t>['540448', '100-110', 'Revenue Cycle Manager (Self-Pay Collection)', 'New York', 'Faculty Practice Organization', 'Nov 23 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['540425', '145-150', 'Director of Nursing and Quality Management', 'Columbia University CUMC', 'CUIMC Student Health Services', 'Nov 23 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['540443', '109-156', 'Clinical Coordinator III - PA', 'Columbia University CUMC', 'Surgery', 'Nov 23 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['540380', '100-135', 'Genetics Counselor', 'Columbia University CUMC', 'P&amp;S Vice Dean For Admin', 'Nov 22 2023', 'Grade 105']</t>
-  </si>
-  <si>
     <t>['540423', '100-120', 'Director, Accreditation, QISP', 'Columbia University CUMC', 'P&amp;S Vice Dean For Education', 'Nov 22 2023', 'Grade 106']</t>
   </si>
   <si>
     <t>['540386', '109-156', 'Clinical Coordinator III-NP/PA', 'Columbia University CUMC', 'Surgery', 'Nov 21 2023', 'Grade 106']</t>
   </si>
   <si>
-    <t>['540372', '120-150', 'Senior Systems Engineer', 'Columbia University CUMC', 'CUIMC IT', 'Nov 18 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['540358', '140-160', 'Senior Cybersecurity Engineer', 'Columbia University CUMC', 'CUIMC IT', 'Nov 18 2023', 'Grade 107']</t>
-  </si>
-  <si>
-    <t>['540334', '125-140', 'Nurse Practitioner - Cardiology', 'Columbia University CUMC', 'Medicine', 'Nov 17 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['540344', '130-155', 'Senior Director - Major Gifts', 'Mville', 'Columbia Business School', 'Nov 17 2023', 'Grade 15']</t>
-  </si>
-  <si>
-    <t>['540328', '100-108', 'Clinical Coordinator II / RN', 'Columbia University CUMC', 'Obstetrics and Gynecology', 'Nov 16 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['540316', '105-115', 'Oncology Research Nurse', 'Columbia University CUMC', 'Herbert Irving Comprehensive Cancer Center', 'Nov 16 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['540263', '100-120', 'Equity Officer', 'Columbia University CUMC', 'Orthopedic Surgery', 'Nov 14 2023', 'Grade 105']</t>
-  </si>
-  <si>
     <t>['540228', '130-160', 'Nurse Practitioner', 'Columbia University CUMC', 'Neurology', 'Nov 14 2023', 'Grade 105']</t>
   </si>
   <si>
-    <t>['540217', '100-130', 'Associate Director-Construction Sourcing (Hybrid Schedule)', 'Mville', 'Procurement Services', 'Nov 11 2023', 'Grade 14']</t>
-  </si>
-  <si>
-    <t>['540213', '135-145', 'Clinical Triage Manager', 'New York', 'Faculty Practice Organization', 'Nov 11 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['540157', '145-180', 'Executive Director, Analytics and Information Systems', 'MS', 'School of Professional Studies', 'Nov 6 2023', 'Grade 15']</t>
-  </si>
-  <si>
-    <t>['540124', '100-120', 'Associate Director, Financial Services', 'MS', 'Finance and Administration', 'Nov 3 2023', 'Grade 14']</t>
-  </si>
-  <si>
     <t>['540164', '118-135', 'Clinical Coordinator II - NP', 'Columbia University CUMC', 'Neurological Surgery', 'Nov 7 2023', 'Grade 105']</t>
   </si>
   <si>
-    <t>['540149', '160-180', 'Director, Budget &amp; Financial Analysis', 'Columbia University CUMC', 'CUIMC CFO', 'Nov 6 2023', 'Grade 107']</t>
-  </si>
-  <si>
     <t>['540073', '110-120', 'Clinical Coordinator II - Registered Nurse', 'Columbia University CUMC', 'Urology', 'Nov 2 2023', 'Grade 105']</t>
   </si>
   <si>
     <t>['540095', '160-168', 'Director-Fin Rpting &amp; Bus Svcs', 'MS', 'Earth Institute', 'Nov 2 2023', 'Grade 15']</t>
   </si>
   <si>
-    <t>['540083', '115-130', 'Audit Manager, IT Audit (Hybrid Schedule)', 'Mville', 'Internal Audit', 'Nov 2 2023', 'Grade 14']</t>
-  </si>
-  <si>
-    <t>['540057', '100-165', 'Nurse Practitioner - PACC (MICU)', 'Columbia University CUMC', 'Medicine', 'Nov 1 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['540044', '132-160', 'Nurse Practitioner - Hematology &amp; Oncology (Solid Tumor Oncology)', 'Columbia University CUMC', 'Medicine', 'Oct 31 2023', 'Grade 105']</t>
-  </si>
-  <si>
     <t>['537160', '175-190', 'Chief Nurse Practitioner - Cardiology (CACC)', 'Columbia University CUMC', 'Medicine', 'Jun 24 2023', 'Grade 106']</t>
   </si>
   <si>
-    <t>['537153', '100-105', 'Sr Project Portfolio Manager', 'Columbia University CUMC', 'ICAP at Columbia', 'Jun 24 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['537863', '150-180', 'Executive Director, Community Health Equity Collaborative', 'Columbia University CUMC', 'Mailman School of Public Health Administration', 'Jul 25 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['537997', '120-145', 'Clinical Care Coordinator - NP', 'Columbia University CUMC', 'Orthopedic Surgery', 'Jul 29 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['538050', '120-140', 'Physician Assistant', 'Columbia University CUMC', 'Orthopedic Surgery', 'Aug 1 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['538202', '120-132', 'QA Nurse Practitioner', 'Columbia University CUMC', 'Anesthesiology', 'Aug 15 2023', 'Grade 106']</t>
-  </si>
-  <si>
     <t>['538957', '120-150', 'Nurse Practitioner', 'Columbia University CUMC', 'Neurology', 'Sep 15 2023', 'Grade 106']</t>
   </si>
   <si>
-    <t>['539636', '105-110', 'Sr Project Portfolio Manager', 'Columbia University CUMC', 'ICAP at Columbia', 'Oct 13 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['539611', '130-150', 'Senior Informatics Specialist', 'Columbia University CUMC', 'Division of Scholarship &amp; Rsch', 'Oct 13 2023', 'Grade 106']</t>
-  </si>
-  <si>
-    <t>['539614', '130-150', 'Senior Informatics Specialist', 'Columbia University CUMC', 'Division of Scholarship &amp; Rsch', 'Oct 13 2023', 'Grade 106']</t>
-  </si>
-  <si>
     <t>['540000', '130-175', 'Physician Assistant', 'Columbia University CUMC', 'Orthopedic Surgery', 'Oct 28 2023', 'Grade 106']</t>
   </si>
   <si>
-    <t>['529175', 'Diagnostic CT Technologist', 'Columbia University CUMC', 'Radiology', 'Aug 14 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['530892', '120-135', 'Adult Nurse Practitioner', 'Columbia University CUMC', 'Naomi Berrie Diabetes Center', 'Nov 4 2022', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['531240', '100-120', 'Nurse Practitioner', 'Columbia University CUMC', 'Pediatrics', 'Nov 18 2022', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['531274', '110-130', 'Nurse Practitioner - DLD (Motility)', 'Columbia University CUMC', 'Medicine', 'Nov 22 2022', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['533002', '120-150', 'Nurse Practitioner - Cardiology', 'Columbia University CUMC', 'Medicine', 'Dec 24 2022', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['533534', '110-126', 'Nurse Practitioner - Rheumatology', 'Columbia University CUMC', 'Medicine', 'Jan 27 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['533979', '110-140', 'Nurse Practitioner - DLD (Allen)', 'Columbia University CUMC', 'Medicine', 'Feb 16 2023', 'Grade 105']</t>
-  </si>
-  <si>
     <t>['535646', '140-165', 'Nurse Practitioner - Cardiology', 'Columbia University CUMC', 'Medicine', 'Apr 27 2023', 'Grade 105']</t>
   </si>
   <si>
     <t>['536440', '100-108', 'Manager, Human Resources and Faculty Affairs', 'Columbia University CUMC', 'P&amp;S Vice Dean For Admin', 'May 27 2023', 'Grade 105']</t>
   </si>
   <si>
-    <t>['536760', '100-110', 'Asst Director, Financial Ops', 'Columbia University CUMC', 'Division of Finance &amp; Admin', 'Jun 9 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['537329', '130-140', 'Nurse Practitioner - Cardiology', 'Columbia University CUMC', 'Medicine', 'Jun 29 2023', 'Grade 105']</t>
-  </si>
-  <si>
     <t>['537446', '125-150', 'Nurse Practitioner - Cardiology', 'Columbia University CUMC', 'Medicine', 'Jul 6 2023', 'Grade 105']</t>
   </si>
   <si>
@@ -236,75 +116,18 @@
     <t>['538519', 'Project Manager', 'Columbia University CUMC', 'Division of Scholarship &amp; Rsch', 'Aug 23 2023', 'Grade 105']</t>
   </si>
   <si>
-    <t>['538647', '115-125', 'Major Gifts Officer', 'Columbia University CUMC', 'Mailman School of Public Health Administration', 'Aug 30 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538699', '110-150', 'Lead Bioinformatic and Computational Scientist - PACC', 'Columbia University CUMC', 'Medicine', 'Aug 31 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538790', '120-160', 'Nurse Practitioner - Hematology &amp; Oncology (Liquid Tumor Oncology)', 'Columbia University CUMC', 'Medicine', 'Sep 7 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538817', '128-175', 'Physician Assistant', 'Columbia University CUMC', 'Emergency Medicine', 'Sep 8 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['538978', '130-168', 'Nurse Practitioner - PACC (Lung Transplant)', 'Columbia University CUMC', 'Medicine', 'Sep 15 2023', 'Grade 105']</t>
-  </si>
-  <si>
     <t>['539059', '130-168', 'Physician Assistant - PACC (Lung Transplant Program)', 'Columbia University CUMC', 'Medicine', 'Sep 19 2023', 'Grade 105']</t>
   </si>
   <si>
     <t>['539241', '140-145', 'Nurse Practitioner', 'Columbia University CUMC', 'Psychiatry', 'Sep 27 2023', 'Grade 105']</t>
   </si>
   <si>
-    <t>['539896', '140-145', 'Nurse Practitioner', 'Columbia University CUMC', 'Psychiatry', 'Oct 25 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['539991', '105-115', 'Oncology Research Nurse Navigator', 'Columbia University CUMC', 'Herbert Irving Comprehensive Cancer Center', 'Oct 28 2023', 'Grade 105']</t>
-  </si>
-  <si>
-    <t>['539878', '117-142', 'Director - CUIMC Faculty Programs and Services', 'Columbia University CUMC', 'Center for Teaching and Learning', 'Oct 24 2023', 'Grade 15']</t>
-  </si>
-  <si>
-    <t>['532781', '225-240', 'Assistant Dean, Development', 'Columbia University CUMC', 'Mailman School of Public Health Administration', 'Dec 14 2022', 'Grade 107']</t>
-  </si>
-  <si>
-    <t>['535623', '150-192', 'Administrator - Hematology &amp; Oncology', 'Columbia University CUMC', 'Medicine', 'Apr 26 2023', 'Grade 107']</t>
-  </si>
-  <si>
     <t>['538859', '135-135', 'Clinical Veterinarian', 'Columbia University CUMC', 'Institute of Comparative Medicine', 'Sep 12 2023', 'Grade 107']</t>
   </si>
   <si>
-    <t>['539785', '140-150', 'Senior Director of Finance and Budget', 'Columbia University CUMC', 'P&amp;S Vice Dean For Education', 'Oct 20 2023', 'Grade 107']</t>
-  </si>
-  <si>
-    <t>['540005', '150-180', 'Director, Vendor Management', 'Mville', 'Columbia University Information Technology', 'Oct 28 2023', 'Grade 15']</t>
-  </si>
-  <si>
-    <t>['539936', '100-125', 'Psychologist (Hybrid Schedule)', 'MS', 'Columbia Health', 'Oct 27 2023', 'Grade 14']</t>
-  </si>
-  <si>
-    <t>['539721', '163-175', 'Chief of Staff to the Founding Director', 'MS', 'School of International and Public Affairs', 'Oct 19 2023', 'Grade 15']</t>
-  </si>
-  <si>
-    <t>['539453', '150-170', 'Senior Project Manager', 'Mville', 'Mville Development Group', 'Oct 6 2023', 'Grade 15']</t>
-  </si>
-  <si>
-    <t>['539642', '200-255', 'Associate Dean of Registration and Student Services', 'MS', 'School of Law', 'Oct 18 2023', 'Grade 16']</t>
-  </si>
-  <si>
-    <t>['539690', '150-175', 'Executive Director of Human Resources in Arts and Sciences', 'MS', 'Office of EVP Arts &amp; Sciences', 'Oct 16 2023', 'Grade 15']</t>
-  </si>
-  <si>
     <t>['534384', '150-165', 'Senior Project Manager', 'Mville', 'Mville Development Group', 'Mar 7 2023', 'Grade 15']</t>
   </si>
   <si>
-    <t>['539442', '120-140', 'Director of Alumni Relations', 'MS', 'School of Law', 'Oct 6 2023', 'Grade 14']</t>
-  </si>
-  <si>
-    <t>['539421', '115-130', 'Director of Operations', 'MS', 'Office of the Provost', 'Oct 5 2023', 'Grade 14']</t>
-  </si>
-  <si>
     <t>['539343', '100-112', 'Audit Manager (Hybrid Schedule)', 'Mville', 'Internal Audit', 'Oct 3 2023', 'Grade 14']</t>
   </si>
   <si>
@@ -345,6 +168,177 @@
   </si>
   <si>
     <t>['534887', '120-138', 'Associate Director-Internal Audit (Hybrid Schedule)', 'Mville', 'Internal Audit', 'Mar 30 2023', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['542094', '110-120', 'Assistant Director of Supply Chain Operations', 'Columbia University CUMC', 'Dental Medicine', 'Feb 23 2024', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['542461', '115-145', 'Director of Finance and Administration', 'MS', 'Dept of Electrical Engineering', 'Mar 14 2024', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['542429', '100-125', 'Psychologist', 'MS', 'Columbia Health', 'Mar 14 2024', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['542478', '1200-140', 'Cloud Architect', 'Columbia University CUMC', 'CUIMC IT', 'Mar 14 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['542457', '140-150', 'Nurse Practitioner', 'Columbia University CUMC', 'Psychiatry', 'Mar 14 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['542467', '120-130', 'Nurse Practitioner', 'Columbia University CUMC', 'Pediatrics', 'Mar 14 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['542355', '120-135', 'Associate Director, General Ledger and Accounting Operations (Hybrid Schedule)', 'Mville', 'Controller', 'Mar 8 2024', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['537899', '130-160', 'Senior Associate Athletics Director/ Chief Financial Officer', 'MS', 'Department of Intercollegiate Athletics', 'Mar 1 2024', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['542310', '115-120', 'Director of Development', 'Columbia University CUMC', 'P&amp;S CUIMC Development', 'Mar 6 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['542315', '100-120', 'Director of Administration and Finance', 'MS', 'Columbia Astrophysics Lab', 'Mar 6 2024', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['542264', '115-125', 'Senior Human Resources Generalist', 'Mville', 'Zuckerman Institute', 'Mar 5 2024', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['542059', '185-200', 'Director of Strategic Research Development', 'MS', 'School of Engineering and Applied Science Admin', 'Feb 27 2024', 'Grade 16']</t>
+  </si>
+  <si>
+    <t>['542227', '150-175', 'Executive Director, Human Resources in the Arts and Sciences', 'MS', 'Office of EVP Arts &amp; Sciences', 'Feb 29 2024', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['542202', '155-165', 'Executive Director', 'MS', 'Committee on Global Thought', 'Feb 29 2024', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['542054', '105-120', 'IVF Coordinator', 'Columbia University CUMC', 'Obstetrics and Gynecology', 'Feb 21 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['542146', '150-165', 'Associate Director – Revenue Cycle Optimization &amp; Education', 'New York', 'Faculty Practice Organization', 'Feb 27 2024', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['542171', '110-135', 'Research Director, Anti-Semitism Task Force', 'MS', 'Office of the President', 'Feb 27 2024', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['541879', '150-208', 'Director of Programs - Capital Projects', 'MS', 'Planning and Capital Project Management', 'Feb 14 2024', 'Grade 16']</t>
+  </si>
+  <si>
+    <t>['542113', '120-130', 'Research Pharmacist', 'Columbia University CUMC', 'Clinical Trials Office', 'Feb 24 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['542065', '105-115', 'Oncology Research Nurse', 'Columbia University CUMC', 'Herbert Irving Comprehensive Cancer Center', 'Feb 22 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['542073', 'Associate Program Director', 'Columbia University CUMC', 'Sociomedical Sciences', 'Feb 22 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['542032', '120-129300', 'Assistant Director, Managed Care Contracting', 'Other NYC Locations', 'Faculty Practice Organization', 'Feb 21 2024', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['542047', '140-165', 'Advanced Practice Provider (NP/PA) - Endocrinology', 'Columbia University CUMC', 'Medicine', 'Feb 21 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['542051', '120-160', 'Nurse Practitioner - Hematology &amp; Oncology (Liquid Tumor Oncology)', 'Columbia University CUMC', 'Medicine', 'Feb 21 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['541957', '105-115', 'Manager, Budget/Finance', 'Columbia University CUMC', 'Pediatrics', 'Feb 16 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['541943', '170-200', 'Associate Dean for Columbia College Alumni Relations and Engagement', 'MS', 'Columbia College', 'Feb 15 2024', 'Grade 16']</t>
+  </si>
+  <si>
+    <t>['540886', '150-200', 'Clinical Coordinator III / Certified Midwife', 'Columbia University CUMC', 'Obstetrics and Gynecology', 'Dec 15 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['541909', '105-125', 'Project Manager', 'MS', 'Planning and Capital Project Management', 'Feb 14 2024', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['541895', '118-135', 'Clinical Coordinator II - NP', 'Columbia University CUMC', 'Neurological Surgery', 'Feb 14 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['541867', '130-150', 'Clinical Coordinator III-NP/PA', 'Columbia University CUMC', 'Obstetrics and Gynecology', 'Feb 13 2024', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['541039', '130-160', 'Nurse Practitioner I', 'Columbia University CUMC', 'Neurology', 'Feb 12 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['541672', '142-166', 'Acute Care Nurse Practitioner', 'Columbia University CUMC', 'Anesthesiology', 'Feb 3 2024', 'Grade 107']</t>
+  </si>
+  <si>
+    <t>['541536', '140-160', 'Publisher', 'MS', 'Graduate School of Journalism', 'Jan 26 2024', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['541626', '110-125', 'Director, University Ceremonies', 'MS', 'University Programs &amp; Events', 'Jan 31 2024', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['541555', '112-137', 'Compliance Officer', 'Mville', 'Columbia University Human Resources', 'Jan 26 2024', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['541558', '140-155', 'Director, Human Resources and Faculty Affairs', 'Columbia University CUMC', 'Pathology and Cell Biology', 'Jan 25 2024', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['541466', '110-130', 'Director, Data Management &amp; Reporting', 'MS', 'Office of Planning &amp; Inst Resh', 'Jan 23 2024', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['541527', '120-156', 'Clinical Coordinator III NP/PA', 'Columbia University CUMC', 'Surgery', 'Jan 25 2024', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['541491', '109-132', 'Clinical Coordinator III-NP/PA', 'Columbia University CUMC', 'Surgery', 'Jan 24 2024', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['541422', '110-135', 'Associate Director, Business Operations and Strategic Planning', 'Columbia University CUMC', 'Clinical Trials Office', 'Jan 20 2024', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['541373', '130-145', 'Senior Director of Events', 'Mville', 'Columbia Business School', 'Jan 17 2024', 'Grade 15']</t>
+  </si>
+  <si>
+    <t>['538817', '128-175', 'Physician Assistant', 'Columbia University CUMC', 'Emergency Medicine', 'Jan 17 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['541341', '132-175', 'Clinical Coordinator III - PA', 'Columbia University CUMC', 'Surgery', 'Jan 13 2024', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['541303', '110-130', 'Senior Director of Student Affairs', 'Columbia University CUMC', 'P&amp;S Vice Dean For Education', 'Jan 12 2024', 'Grade 107']</t>
+  </si>
+  <si>
+    <t>['541272', '130-160', 'Nurse Practitioner / Quality Officer', 'Columbia University CUMC', 'Orthopedic Surgery', 'Jan 11 2024', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['541271', '115-145', 'Software Developer', 'Columbia University CUMC', 'Radiation Oncology', 'Jan 11 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['536890', '120-135', 'Sr Prog Analyst/Bioinformatics', 'Columbia University CUMC', 'Center for Infection and Immunity', 'Jan 11 2024', 'Grade 105']</t>
+  </si>
+  <si>
+    <t>['540786', '170-185', 'Sr Dir, Strategic Initiatives', 'Columbia University CUMC', 'ICAP at Columbia', 'Dec 19 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['540929', '175-195', 'Sr Director, Pract Ops &amp; Strat', 'Columbia University CUMC', 'Radiology', 'Dec 19 2023', 'Grade 107']</t>
+  </si>
+  <si>
+    <t>['540601', '155-180', 'Director of Practice Operations (Nurse Practitioner)', 'Columbia University CUMC', 'Neurological Surgery', 'Dec 2 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['540813', '210-240', 'Executive Editor - CJR', 'MS', 'Columbia Journalism Review', 'Dec 12 2023', 'Grade 16']</t>
+  </si>
+  <si>
+    <t>['540799', '100-110', 'Senior Grants Manager', 'Columbia University CUMC', 'ICAP at Columbia', 'Dec 12 2023', 'Grade 106']</t>
+  </si>
+  <si>
+    <t>['540725', '200-300', 'Database Architect/Developer-Hybrid Schedule', 'Other NYC Locations', 'IMC', 'Dec 8 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['540719', '100-120', 'Director, Career Education &amp; Advising in the Career Management Center', 'Mville', 'Columbia Business School', 'Dec 8 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['540711', '120-130', 'Major Gifts Officer, General Studies and Arts &amp; Sciences', 'MS', 'Office of Alumni &amp; Development', 'Dec 6 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['540508', '100-110', 'Director of Academic Administration', 'MS', 'School of the Arts', 'Dec 5 2023', 'Grade 14']</t>
+  </si>
+  <si>
+    <t>['536110', '120-150', 'Nurse Practitioner', 'Columbia University CUMC', 'Neurology', 'May 17 2023', 'Grade 106']</t>
   </si>
 </sst>
 </file>
@@ -728,14 +722,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8656E882-76F0-44FD-AA29-91A5112D6DD9}">
   <dimension ref="A1:C1026"/>
   <sheetViews>
-    <sheetView topLeftCell="A1026" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A1026"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="3" max="3" width="146.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,7 +769,7 @@
         <v/>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,7 +778,7 @@
         <v/>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,7 +787,7 @@
         <v/>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -802,7 +796,7 @@
         <v/>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,7 +805,7 @@
         <v/>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -820,7 +814,7 @@
         <v/>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,7 +823,7 @@
         <v/>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,7 +832,7 @@
         <v/>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,7 +841,7 @@
         <v/>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -856,7 +850,7 @@
         <v/>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,7 +859,7 @@
         <v/>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,7 +868,7 @@
         <v/>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,7 +877,7 @@
         <v/>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,7 +886,7 @@
         <v/>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,7 +895,7 @@
         <v/>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,7 +904,7 @@
         <v/>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -919,7 +913,7 @@
         <v/>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -928,7 +922,7 @@
         <v/>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,7 +931,7 @@
         <v/>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,7 +940,7 @@
         <v/>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -955,7 +949,7 @@
         <v/>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,7 +958,7 @@
         <v/>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,7 +967,7 @@
         <v/>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -982,7 +976,7 @@
         <v/>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,7 +985,7 @@
         <v/>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,7 +994,7 @@
         <v/>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,7 +1003,7 @@
         <v/>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,7 +1012,7 @@
         <v/>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1021,7 @@
         <v/>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1036,7 +1030,7 @@
         <v/>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1045,7 +1039,7 @@
         <v/>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1054,7 +1048,7 @@
         <v/>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1063,7 +1057,7 @@
         <v/>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,7 +1066,7 @@
         <v/>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1081,7 +1075,7 @@
         <v/>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,7 +1084,7 @@
         <v/>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,7 +1093,7 @@
         <v/>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,7 +1102,7 @@
         <v/>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,7 +1111,7 @@
         <v/>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1126,7 +1120,7 @@
         <v/>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1135,7 +1129,7 @@
         <v/>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,7 +1138,7 @@
         <v/>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1153,7 +1147,7 @@
         <v/>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1162,7 +1156,7 @@
         <v/>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1171,7 +1165,7 @@
         <v/>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,7 +1174,7 @@
         <v/>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1189,7 +1183,7 @@
         <v/>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1198,7 +1192,7 @@
         <v/>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,7 +1201,7 @@
         <v/>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,7 +1210,7 @@
         <v/>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1225,7 +1219,7 @@
         <v/>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,7 +1228,7 @@
         <v/>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,7 +1237,7 @@
         <v/>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1252,7 +1246,7 @@
         <v/>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,7 +1255,7 @@
         <v/>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1270,7 +1264,7 @@
         <v/>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,7 +1273,7 @@
         <v/>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,7 +1282,7 @@
         <v/>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,7 +1291,7 @@
         <v/>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,7 +1300,7 @@
         <v/>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,7 +1309,7 @@
         <v/>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,7 +1318,7 @@
         <v/>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1333,7 +1327,7 @@
         <v/>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,7 +1336,7 @@
         <v/>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,7 +1345,7 @@
         <v/>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1360,7 +1354,7 @@
         <v/>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1369,7 +1363,7 @@
         <v/>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,7 +1372,7 @@
         <v/>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,7 +1381,7 @@
         <v/>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1396,7 +1390,7 @@
         <v/>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,7 +1399,7 @@
         <v/>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,7 +1408,7 @@
         <v/>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1423,7 +1417,7 @@
         <v/>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1432,7 +1426,7 @@
         <v/>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1441,7 +1435,7 @@
         <v/>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,7 +1444,7 @@
         <v/>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1459,7 +1453,7 @@
         <v/>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,7 +1462,7 @@
         <v/>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1477,7 +1471,7 @@
         <v/>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,7 +1480,7 @@
         <v/>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,7 +1489,7 @@
         <v/>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1504,7 +1498,7 @@
         <v/>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1513,7 +1507,7 @@
         <v/>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,7 +1516,7 @@
         <v/>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1531,7 +1525,7 @@
         <v/>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,7 +1534,7 @@
         <v/>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1543,7 @@
         <v/>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,7 +1552,7 @@
         <v/>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,7 +1606,7 @@
         <v/>
       </c>
       <c r="C97" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,7 +1615,7 @@
         <v/>
       </c>
       <c r="C98" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1630,7 +1624,7 @@
         <v/>
       </c>
       <c r="C99" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1639,7 +1633,7 @@
         <v/>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1648,7 +1642,7 @@
         <v/>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1657,7 +1651,7 @@
         <v/>
       </c>
       <c r="C102" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1666,7 +1660,7 @@
         <v/>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1684,7 +1678,7 @@
         <v/>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1693,7 +1687,7 @@
         <v/>
       </c>
       <c r="C106" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -7247,345 +7241,504 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58090094-56EE-46D2-BEBC-704D9DE71ED8}">
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:S396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="A344" sqref="A344:A396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>538304</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S1">
+        <v>542094</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>538221</v>
       </c>
       <c r="B2">
         <v>540157</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>542461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>538205</v>
       </c>
       <c r="B3">
         <v>540149</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>542429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>538239</v>
       </c>
       <c r="B4">
         <v>540095</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>542478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>538169</v>
       </c>
       <c r="B5">
         <v>539785</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>542457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>538157</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>542467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>538115</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>542355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>538087</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>542310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>538077</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>542315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>538027</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>542264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>538025</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>542059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>538050</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>542227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>538024</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>542202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>537999</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>542054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>537997</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>542146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>538009</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>542171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>538000</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>541879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>537996</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>542113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>537989</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>542065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>538068</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>542073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>537933</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>542032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>537962</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>542047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>537958</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>542051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>537871</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>541957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>537035</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>541943</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>537153</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>540886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>537156</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>541909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>537160</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>541895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>536439</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>541867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>537131</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>541039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>537037</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>541672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>537048</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>541536</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>537089</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>541626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>536992</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>541555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>537044</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>541558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>536996</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>541466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>536998</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>541527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>536954</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>541491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>536967</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>541422</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>536926</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>541373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>536111</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>541341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>534996</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>541303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>536445</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>541272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>536870</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>541271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>535123</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>536890</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>536579</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>540786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>536559</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>540929</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>536595</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>540813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>536443</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>540799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>536203</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>540725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>536188</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>540719</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>536192</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>540711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>536128</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>540508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>535640</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>535494</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>535349</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>534905</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>534658</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>533928</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>533364</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>532907</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>530579</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>527985</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>528919</v>
       </c>
@@ -8983,6 +9136,271 @@
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>539074</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>542094</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>542461</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>542429</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>542478</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>542457</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>542467</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>542355</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>542310</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>542315</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>542264</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>542059</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>542227</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>542202</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>542054</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>542146</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>542171</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>541879</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>542113</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>542065</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>542073</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>542032</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>542047</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>542051</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>541957</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>541943</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>540886</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>541909</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>541895</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>541867</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>541039</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>541672</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>541536</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>541626</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>541555</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>541558</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>541466</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>541527</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>541491</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>541422</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>541373</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>541341</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>541303</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>541272</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>541271</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>536890</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>540786</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>540929</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>540813</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>540799</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>540725</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>540719</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>540711</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>540508</v>
       </c>
     </row>
   </sheetData>
